--- a/douments/ER Support Doument.xlsx
+++ b/douments/ER Support Doument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bit\douments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786AE49-792F-4DD3-BCB5-2D0F83663EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804FF2E-E9BF-46E5-91B9-81DD1D4F1D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="5304" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6492" yWindow="5004" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="book1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Entity</t>
   </si>
@@ -216,9 +216,6 @@
     <t>INTEL</t>
   </si>
   <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>model_name</t>
   </si>
   <si>
@@ -226,6 +223,81 @@
   </si>
   <si>
     <t>RTX 3060</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>reorder_level</t>
+  </si>
+  <si>
+    <t>regular_price</t>
+  </si>
+  <si>
+    <t>sale_price</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>models_specifications</t>
+  </si>
+  <si>
+    <t>cpu_cores</t>
+  </si>
+  <si>
+    <t>cpu_threads</t>
+  </si>
+  <si>
+    <t>boost_clock</t>
+  </si>
+  <si>
+    <t>base_clock</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>order_items</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>payment_methords</t>
+  </si>
+  <si>
+    <t>payment_methord_name</t>
+  </si>
+  <si>
+    <t>courier_details</t>
+  </si>
+  <si>
+    <t>tracking_url</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>company_address</t>
+  </si>
+  <si>
+    <t>company_phone</t>
+  </si>
+  <si>
+    <t>company_email</t>
+  </si>
+  <si>
+    <t>order_tracking_number</t>
   </si>
 </sst>
 </file>
@@ -249,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +346,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -288,19 +366,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -582,16 +666,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="23.21875" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
@@ -626,23 +710,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -651,52 +735,52 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -704,7 +788,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="6"/>
       <c r="F3" t="s">
         <v>29</v>
       </c>
@@ -720,13 +804,13 @@
       <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>34214</v>
       </c>
       <c r="L3">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="N3">
@@ -767,13 +851,13 @@
       <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>34244</v>
       </c>
       <c r="L4">
         <v>28</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="N4">
@@ -838,7 +922,7 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -846,25 +930,25 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -969,35 +1053,144 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>64</v>
       </c>
-      <c r="F34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
-        <v>66</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="F1:T1"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" xr:uid="{E7D32A24-6AE9-4778-9452-03479E1BF93F}"/>
     <hyperlink ref="M4" r:id="rId2" xr:uid="{83E6DC85-943F-49B9-9F9D-91F1C477731E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/douments/ER Support Doument.xlsx
+++ b/douments/ER Support Doument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bit\douments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804FF2E-E9BF-46E5-91B9-81DD1D4F1D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6EF378-EDF2-4533-9648-5AC22181A04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6492" yWindow="5004" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="book1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
   <si>
     <t>Entity</t>
   </si>
@@ -234,54 +234,27 @@
     <t>reorder_level</t>
   </si>
   <si>
-    <t>regular_price</t>
-  </si>
-  <si>
     <t>sale_price</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>models</t>
   </si>
   <si>
     <t>models_specifications</t>
   </si>
   <si>
-    <t>cpu_cores</t>
-  </si>
-  <si>
-    <t>cpu_threads</t>
-  </si>
-  <si>
-    <t>boost_clock</t>
-  </si>
-  <si>
-    <t>base_clock</t>
-  </si>
-  <si>
     <t>orders</t>
   </si>
   <si>
     <t>order_number</t>
   </si>
   <si>
-    <t>order_items</t>
-  </si>
-  <si>
     <t>total_price</t>
   </si>
   <si>
     <t>payment_methords</t>
   </si>
   <si>
-    <t>payment_methord_name</t>
-  </si>
-  <si>
-    <t>courier_details</t>
-  </si>
-  <si>
     <t>tracking_url</t>
   </si>
   <si>
@@ -298,6 +271,132 @@
   </si>
   <si>
     <t>order_tracking_number</t>
+  </si>
+  <si>
+    <t>appointments</t>
+  </si>
+  <si>
+    <t>defect_discribe</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answers</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>warranty</t>
+  </si>
+  <si>
+    <t>app_date</t>
+  </si>
+  <si>
+    <t>app_time</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>brand_id</t>
+  </si>
+  <si>
+    <t>manifacture_id</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>serial_number</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>quntity</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>discount_rate</t>
+  </si>
+  <si>
+    <t>spec_id</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>estimated_dilivary date</t>
+  </si>
+  <si>
+    <t>warranty_id</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>method_name</t>
+  </si>
+  <si>
+    <t>method_id</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>payment_date</t>
+  </si>
+  <si>
+    <t>payment_amount</t>
+  </si>
+  <si>
+    <t>courier</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>job_card</t>
+  </si>
+  <si>
+    <t>job_card_id</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>technician_name</t>
+  </si>
+  <si>
+    <t>daignosis_details</t>
+  </si>
+  <si>
+    <t>faq</t>
+  </si>
+  <si>
+    <t>faq_id</t>
   </si>
 </sst>
 </file>
@@ -321,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,12 +445,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -366,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -378,12 +471,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,6 +1087,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
       <c r="F23" t="s">
         <v>53</v>
       </c>
@@ -1021,6 +1111,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
       <c r="F27" t="s">
         <v>57</v>
       </c>
@@ -1042,6 +1135,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
       <c r="F31" t="s">
         <v>61</v>
       </c>
@@ -1053,7 +1149,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
@@ -1063,9 +1159,6 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
       <c r="F35" t="s">
         <v>64</v>
       </c>
@@ -1083,73 +1176,86 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="9"/>
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>73</v>
-      </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
       <c r="B47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>84</v>
-      </c>
       <c r="B55" t="s">
         <v>86</v>
       </c>
@@ -1161,30 +1267,160 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="F1:T1"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" xr:uid="{E7D32A24-6AE9-4778-9452-03479E1BF93F}"/>

--- a/douments/ER Support Doument.xlsx
+++ b/douments/ER Support Doument.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bit\douments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6EF378-EDF2-4533-9648-5AC22181A04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709D17F-9D6B-440E-AF7B-E683C211E700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>MSI</t>
   </si>
   <si>
-    <t>manifacture</t>
-  </si>
-  <si>
     <t>manifacture_name</t>
   </si>
   <si>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>faq_id</t>
+  </si>
+  <si>
+    <t>manufacturers</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
         <v>57</v>
@@ -1125,295 +1125,295 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
         <v>94</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
         <v>72</v>
-      </c>
-      <c r="B52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
         <v>111</v>
-      </c>
-      <c r="B68" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
         <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" t="s">
         <v>117</v>
-      </c>
-      <c r="B85" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" t="s">
         <v>122</v>
-      </c>
-      <c r="B90" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
